--- a/data/trans_orig/ProbViv_estruc-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_estruc-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B90A115-38E1-4C09-AA54-DF4BBF3F3C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E65F6FC1-F122-4841-8EDE-DB92623E4DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9255B8C1-C624-456C-8B02-C8CB34A201FA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{54510342-C60C-4178-8684-BEB907083848}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEA74C7-F893-4EC1-8101-C279B47BCB95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA139C60-318D-460B-AC9E-10BD726C6662}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/ProbViv_estruc-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_estruc-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E65F6FC1-F122-4841-8EDE-DB92623E4DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CBF9BE1-FF97-40E2-B6D8-55A96BBE3109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{54510342-C60C-4178-8684-BEB907083848}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2BD8F20E-0E4B-4596-9950-14DAB896DF70}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
   <si>
     <t>Hogares con problemas estructurales en la vivienda (goteras, humedades, podredumbre) en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -74,28 +74,28 @@
     <t>7,18%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,97 +104,97 @@
     <t>92,82%</t>
   </si>
   <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
   </si>
   <si>
     <t>93,12%</t>
   </si>
   <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
   </si>
   <si>
     <t>92,99%</t>
   </si>
   <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>14,49%</t>
   </si>
   <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
   </si>
   <si>
     <t>9,68%</t>
   </si>
   <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
   </si>
   <si>
     <t>11,94%</t>
   </si>
   <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
   </si>
   <si>
     <t>85,51%</t>
   </si>
   <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
   </si>
   <si>
     <t>90,32%</t>
   </si>
   <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
   </si>
   <si>
     <t>88,06%</t>
   </si>
   <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>9,23%</t>
   </si>
   <si>
-    <t>7,27%</t>
+    <t>7,16%</t>
   </si>
   <si>
     <t>11,49%</t>
@@ -203,19 +203,19 @@
     <t>11,03%</t>
   </si>
   <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
   </si>
   <si>
     <t>10,14%</t>
   </si>
   <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
   </si>
   <si>
     <t>90,77%</t>
@@ -224,82 +224,82 @@
     <t>88,51%</t>
   </si>
   <si>
-    <t>92,73%</t>
+    <t>92,84%</t>
   </si>
   <si>
     <t>88,97%</t>
   </si>
   <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
   </si>
   <si>
     <t>89,86%</t>
   </si>
   <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
   </si>
   <si>
     <t>20,28%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
   </si>
   <si>
     <t>14,27%</t>
   </si>
   <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
   </si>
   <si>
     <t>92,94%</t>
   </si>
   <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
   </si>
   <si>
     <t>79,72%</t>
   </si>
   <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
   </si>
   <si>
     <t>85,73%</t>
   </si>
   <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +308,103 @@
     <t>9,82%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
   </si>
   <si>
     <t>11,14%</t>
   </si>
   <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
   </si>
   <si>
     <t>10,53%</t>
   </si>
   <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
   </si>
   <si>
     <t>90,18%</t>
   </si>
   <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
   </si>
   <si>
     <t>88,86%</t>
   </si>
   <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
   </si>
   <si>
     <t>89,47%</t>
   </si>
   <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
   </si>
   <si>
     <t>9,72%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
   </si>
   <si>
     <t>12,81%</t>
   </si>
   <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
+    <t>23,47%</t>
   </si>
   <si>
     <t>11,37%</t>
   </si>
   <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
   </si>
   <si>
     <t>90,28%</t>
   </si>
   <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
   </si>
   <si>
     <t>87,19%</t>
   </si>
   <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
+    <t>76,53%</t>
   </si>
   <si>
     <t>88,63%</t>
   </si>
   <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA139C60-318D-460B-AC9E-10BD726C6662}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE8FE9E-F550-4E9C-B91C-A3A2A7BA6D56}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1742,10 +1736,10 @@
         <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>851</v>
@@ -1754,13 +1748,13 @@
         <v>820188</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,13 +1769,13 @@
         <v>3054941</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>4848</v>
@@ -1790,28 +1784,28 @@
         <v>3341489</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="M20" s="7">
         <v>7885</v>
       </c>
       <c r="N20" s="7">
-        <v>6396431</v>
+        <v>6396430</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1853,7 +1847,7 @@
         <v>8736</v>
       </c>
       <c r="N21" s="7">
-        <v>7216619</v>
+        <v>7216618</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1867,7 +1861,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/ProbViv_estruc-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_estruc-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CBF9BE1-FF97-40E2-B6D8-55A96BBE3109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCE335B0-7B6B-49DA-B7EE-4EF459672EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2BD8F20E-0E4B-4596-9950-14DAB896DF70}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EBF2D42C-6D14-4450-A619-D0A621A36C59}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
-  <si>
-    <t>Hogares con problemas estructurales en la vivienda (goteras, humedades, podredumbre) en 2023 (Tasa respuesta: 99,92%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+  <si>
+    <t>Población con problemas estructurales en la vivienda (goteras, humedades, podredumbre) en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>7,18%</t>
   </si>
   <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>92,82%</t>
   </si>
   <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
   </si>
   <si>
     <t>93,12%</t>
   </si>
   <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
   </si>
   <si>
     <t>92,99%</t>
   </si>
   <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>14,49%</t>
   </si>
   <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
   </si>
   <si>
     <t>9,68%</t>
   </si>
   <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
   </si>
   <si>
     <t>11,94%</t>
   </si>
   <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
   </si>
   <si>
     <t>85,51%</t>
   </si>
   <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
   </si>
   <si>
     <t>90,32%</t>
   </si>
   <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
   </si>
   <si>
     <t>88,06%</t>
   </si>
   <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -194,7 +194,7 @@
     <t>9,23%</t>
   </si>
   <si>
-    <t>7,16%</t>
+    <t>7,27%</t>
   </si>
   <si>
     <t>11,49%</t>
@@ -203,19 +203,19 @@
     <t>11,03%</t>
   </si>
   <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
   </si>
   <si>
     <t>10,14%</t>
   </si>
   <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
   </si>
   <si>
     <t>90,77%</t>
@@ -224,25 +224,25 @@
     <t>88,51%</t>
   </si>
   <si>
-    <t>92,84%</t>
+    <t>92,73%</t>
   </si>
   <si>
     <t>88,97%</t>
   </si>
   <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
   </si>
   <si>
     <t>89,86%</t>
   </si>
   <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -251,55 +251,55 @@
     <t>7,06%</t>
   </si>
   <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
   </si>
   <si>
     <t>20,28%</t>
   </si>
   <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
   </si>
   <si>
     <t>14,27%</t>
   </si>
   <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
   </si>
   <si>
     <t>92,94%</t>
   </si>
   <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
   </si>
   <si>
     <t>79,72%</t>
   </si>
   <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
   </si>
   <si>
     <t>85,73%</t>
   </si>
   <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,103 +308,109 @@
     <t>9,82%</t>
   </si>
   <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
   </si>
   <si>
     <t>11,14%</t>
   </si>
   <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
   </si>
   <si>
     <t>10,53%</t>
   </si>
   <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
   </si>
   <si>
     <t>90,18%</t>
   </si>
   <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
   </si>
   <si>
     <t>88,86%</t>
   </si>
   <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
   </si>
   <si>
     <t>89,47%</t>
   </si>
   <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
   </si>
   <si>
     <t>9,72%</t>
   </si>
   <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
   </si>
   <si>
     <t>12,81%</t>
   </si>
   <si>
-    <t>23,47%</t>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
   </si>
   <si>
     <t>11,37%</t>
   </si>
   <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
   </si>
   <si>
     <t>90,28%</t>
   </si>
   <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
   </si>
   <si>
     <t>87,19%</t>
   </si>
   <si>
-    <t>76,53%</t>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
   </si>
   <si>
     <t>88,63%</t>
   </si>
   <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE8FE9E-F550-4E9C-B91C-A3A2A7BA6D56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A808D3-6474-4F0B-9CF9-1EAF601B74CC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1736,10 +1742,10 @@
         <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>851</v>
@@ -1748,13 +1754,13 @@
         <v>820188</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,13 +1775,13 @@
         <v>3054941</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>4848</v>
@@ -1784,28 +1790,28 @@
         <v>3341489</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>7885</v>
       </c>
       <c r="N20" s="7">
-        <v>6396430</v>
+        <v>6396431</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1847,7 +1853,7 @@
         <v>8736</v>
       </c>
       <c r="N21" s="7">
-        <v>7216618</v>
+        <v>7216619</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1861,7 +1867,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/ProbViv_estruc-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_estruc-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCE335B0-7B6B-49DA-B7EE-4EF459672EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6E37C74-B6B5-4897-9801-8622EE8DC7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EBF2D42C-6D14-4450-A619-D0A621A36C59}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2FECC141-BCC0-4BEB-92F7-D16221600B50}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Población con problemas estructurales en la vivienda (goteras, humedades, podredumbre) en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -65,352 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
   </si>
   <si>
     <t>9,91%</t>
   </si>
   <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
   </si>
   <si>
     <t>90,09%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A808D3-6474-4F0B-9CF9-1EAF601B74CC}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898A1027-ADD9-4563-B564-AC2B65CE1DCC}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -943,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="D4" s="7">
-        <v>7320</v>
+        <v>83332</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -958,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="I4" s="7">
-        <v>9000</v>
+        <v>62526</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -973,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>28</v>
+        <v>197</v>
       </c>
       <c r="N4" s="7">
-        <v>16320</v>
+        <v>145858</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -994,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>108</v>
+        <v>641</v>
       </c>
       <c r="D5" s="7">
-        <v>94662</v>
+        <v>552109</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1009,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>225</v>
+        <v>1133</v>
       </c>
       <c r="I5" s="7">
-        <v>121733</v>
+        <v>662804</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1024,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>333</v>
+        <v>1774</v>
       </c>
       <c r="N5" s="7">
-        <v>216395</v>
+        <v>1214914</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1045,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1060,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>725330</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1075,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1971</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1360772</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1098,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D7" s="7">
-        <v>79695</v>
+        <v>87476</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1113,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="I7" s="7">
-        <v>60021</v>
+        <v>101650</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1128,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="N7" s="7">
-        <v>139716</v>
+        <v>189126</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1149,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>533</v>
+        <v>869</v>
       </c>
       <c r="D8" s="7">
-        <v>470128</v>
+        <v>1105388</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1164,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>908</v>
+        <v>1355</v>
       </c>
       <c r="I8" s="7">
-        <v>559946</v>
+        <v>854917</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1179,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1441</v>
+        <v>2224</v>
       </c>
       <c r="N8" s="7">
-        <v>1030074</v>
+        <v>1960305</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1200,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1215,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>998</v>
+        <v>1513</v>
       </c>
       <c r="I9" s="7">
-        <v>619967</v>
+        <v>956567</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1230,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1610</v>
+        <v>2477</v>
       </c>
       <c r="N9" s="7">
-        <v>1169790</v>
+        <v>2149431</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1253,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="D10" s="7">
-        <v>95933</v>
+        <v>48139</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1268,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="I10" s="7">
-        <v>116729</v>
+        <v>264983</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1283,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>253</v>
+        <v>140</v>
       </c>
       <c r="N10" s="7">
-        <v>212662</v>
+        <v>313122</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1304,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>869</v>
+        <v>622</v>
       </c>
       <c r="D11" s="7">
-        <v>943315</v>
+        <v>656377</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1319,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>1355</v>
+        <v>960</v>
       </c>
       <c r="I11" s="7">
-        <v>941135</v>
+        <v>668383</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1334,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>2224</v>
+        <v>1582</v>
       </c>
       <c r="N11" s="7">
-        <v>1884450</v>
+        <v>1324759</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1355,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>675</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704516</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1370,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1513</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1057864</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2477</v>
+        <v>1722</v>
       </c>
       <c r="N12" s="7">
-        <v>2097112</v>
+        <v>1637881</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1408,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="D13" s="7">
-        <v>51469</v>
+        <v>88011</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1423,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="I13" s="7">
-        <v>177314</v>
+        <v>112249</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1438,10 +1381,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>140</v>
+        <v>261</v>
       </c>
       <c r="N13" s="7">
-        <v>228784</v>
+        <v>200260</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1459,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>622</v>
+        <v>905</v>
       </c>
       <c r="D14" s="7">
-        <v>677143</v>
+        <v>837815</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1474,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>960</v>
+        <v>1400</v>
       </c>
       <c r="I14" s="7">
-        <v>697057</v>
+        <v>981953</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1489,10 +1432,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1582</v>
+        <v>2305</v>
       </c>
       <c r="N14" s="7">
-        <v>1374199</v>
+        <v>1819769</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1510,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>675</v>
+        <v>1005</v>
       </c>
       <c r="D15" s="7">
-        <v>728612</v>
+        <v>925826</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1525,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1561</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1094202</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1722</v>
+        <v>2566</v>
       </c>
       <c r="N15" s="7">
-        <v>1602983</v>
+        <v>2020029</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1557,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>100</v>
+        <v>337</v>
       </c>
       <c r="D16" s="7">
-        <v>94673</v>
+        <v>306958</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>514</v>
+      </c>
+      <c r="I16" s="7">
+        <v>541409</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>161</v>
-      </c>
-      <c r="I16" s="7">
-        <v>128034</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>851</v>
+      </c>
+      <c r="N16" s="7">
+        <v>848367</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>261</v>
-      </c>
-      <c r="N16" s="7">
-        <v>222706</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>905</v>
+        <v>3037</v>
       </c>
       <c r="D17" s="7">
-        <v>869694</v>
+        <v>3151690</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>4848</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3168056</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>1400</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1021619</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>7885</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6319746</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>2305</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1891314</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1005</v>
+        <v>3374</v>
       </c>
       <c r="D18" s="7">
-        <v>964367</v>
+        <v>3458648</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1561</v>
+        <v>5362</v>
       </c>
       <c r="I18" s="7">
-        <v>1149653</v>
+        <v>3709465</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1695,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2566</v>
+        <v>8736</v>
       </c>
       <c r="N18" s="7">
-        <v>2114020</v>
+        <v>7168113</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1711,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>337</v>
-      </c>
-      <c r="D19" s="7">
-        <v>329091</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>514</v>
-      </c>
-      <c r="I19" s="7">
-        <v>491098</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>851</v>
-      </c>
-      <c r="N19" s="7">
-        <v>820188</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3037</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3054941</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4848</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3341489</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>7885</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6396431</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3374</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3384032</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5362</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3832587</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8736</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7216619</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
